--- a/src/render-data/店铺数据统计.xlsx
+++ b/src/render-data/店铺数据统计.xlsx
@@ -1,161 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10125"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/Documents/shop/src/render-data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{899005D9-60CF-3F4E-8608-FA8DDD9E401D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="4340" yWindow="760" windowWidth="30220" windowHeight="20080" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
     <sheet name="销售明细" sheetId="1" r:id="rId1"/>
     <sheet name="采购明细" sheetId="2" r:id="rId2"/>
     <sheet name="月度利润" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
-  <si>
-    <t>日期</t>
-  </si>
-  <si>
-    <t>商品名称</t>
-  </si>
-  <si>
-    <t>销量</t>
-  </si>
-  <si>
-    <t>售价</t>
-  </si>
-  <si>
-    <t>销售额</t>
-  </si>
-  <si>
-    <t>材料成本</t>
-  </si>
-  <si>
-    <t>毛利</t>
-  </si>
-  <si>
-    <t>毛利率%</t>
-  </si>
-  <si>
-    <t>2026-01-29</t>
-  </si>
-  <si>
-    <t>草莓蛋糕</t>
-  </si>
-  <si>
-    <t>品名</t>
-  </si>
-  <si>
-    <t>数量</t>
-  </si>
-  <si>
-    <t>单位</t>
-  </si>
-  <si>
-    <t>单价</t>
-  </si>
-  <si>
-    <t>金额</t>
-  </si>
-  <si>
-    <t>鸡蛋</t>
-  </si>
-  <si>
-    <t>件</t>
-  </si>
-  <si>
-    <t>奶油</t>
-  </si>
-  <si>
-    <t>月份</t>
-  </si>
-  <si>
-    <t>销售收入</t>
-  </si>
-  <si>
-    <t>销售成本</t>
-  </si>
-  <si>
-    <t>租金</t>
-  </si>
-  <si>
-    <t>水电</t>
-  </si>
-  <si>
-    <t>人工</t>
-  </si>
-  <si>
-    <t>推广</t>
-  </si>
-  <si>
-    <t>其他费用</t>
-  </si>
-  <si>
-    <t>总费用</t>
-  </si>
-  <si>
-    <t>净利润</t>
-  </si>
-  <si>
-    <t>利润率%</t>
-  </si>
-  <si>
-    <t>2026-01</t>
-  </si>
-  <si>
-    <t>蓝莓蛋糕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蛋糕盒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-</sst>
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -180,23 +67,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -521,47 +400,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>日期</v>
+      </c>
+      <c r="B1" t="str">
+        <v>商品名称</v>
+      </c>
+      <c r="C1" t="str">
+        <v>销量</v>
+      </c>
+      <c r="D1" t="str">
+        <v>售价</v>
+      </c>
+      <c r="E1" t="str">
+        <v>销售额</v>
+      </c>
+      <c r="F1" t="str">
+        <v>材料成本</v>
+      </c>
+      <c r="G1" t="str">
+        <v>毛利</v>
+      </c>
+      <c r="H1" t="str">
+        <v>毛利率%</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>2026-01-29</v>
+      </c>
+      <c r="B2" t="str">
+        <v>草莓蛋糕</v>
       </c>
       <c r="C2">
         <v>12</v>
@@ -571,27 +447,27 @@
       </c>
       <c r="E2" s="1">
         <f>C2*D2</f>
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <f>INDEX(月度利润!$C$2:$C$2, MATCH(TEXT(A2,"YYYY-MM"), 月度利润!$A$2:$A$2, 0))</f>
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
         <f>E2-F2</f>
-        <v>-320</v>
+        <v>0</v>
       </c>
       <c r="H2" s="2">
         <f>G2/E2</f>
-        <v>-0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>30</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>2026-01-29</v>
+      </c>
+      <c r="B3" t="str">
+        <v>蓝莓蛋糕</v>
       </c>
       <c r="C3">
         <v>8</v>
@@ -601,202 +477,192 @@
       </c>
       <c r="E3" s="1">
         <f>C3*D3</f>
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
         <f>INDEX(月度利润!$C$2:$C$2, MATCH(TEXT(A3,"YYYY-MM"), 月度利润!$A$2:$A$2, 0))</f>
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
         <f>E3-F3</f>
-        <v>-480</v>
+        <v>0</v>
       </c>
       <c r="H3" s="2">
         <f>G3/E3</f>
-        <v>-1.5</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:H2" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H3"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>日期</v>
+      </c>
+      <c r="B1" t="str">
+        <v>品名</v>
+      </c>
+      <c r="C1" t="str">
+        <v>数量</v>
+      </c>
+      <c r="D1" t="str">
+        <v>单位</v>
+      </c>
+      <c r="E1" t="str">
+        <v>单价</v>
+      </c>
+      <c r="F1" t="str">
+        <v>金额</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>2026-01-29</v>
+      </c>
+      <c r="B2" t="str">
+        <v>鸡蛋</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>16</v>
+      <c r="D2" t="str">
+        <v>件</v>
       </c>
       <c r="E2">
         <v>200</v>
       </c>
       <c r="F2" s="1">
         <f>C2*E2</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>2026-01-29</v>
+      </c>
+      <c r="B3" t="str">
+        <v>奶油</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
-        <v>16</v>
+      <c r="D3" t="str">
+        <v>件</v>
       </c>
       <c r="E3">
         <v>600</v>
       </c>
       <c r="F3" s="1">
         <f>C3*E3</f>
-        <v>600</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>31</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>2026-01-29</v>
+      </c>
+      <c r="B4" t="str">
+        <v>蛋糕盒</v>
       </c>
       <c r="C4">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
-        <v>32</v>
+      <c r="D4" t="str">
+        <v>箱</v>
       </c>
       <c r="E4">
         <v>50</v>
       </c>
       <c r="F4" s="1">
         <f>C4*E4</f>
-        <v>250</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:F3" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F4"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
-        <v>29</v>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>月份</v>
+      </c>
+      <c r="B1" t="str">
+        <v>销售收入</v>
+      </c>
+      <c r="C1" t="str">
+        <v>销售成本</v>
+      </c>
+      <c r="D1" t="str">
+        <v>毛利</v>
+      </c>
+      <c r="E1" t="str">
+        <v>毛利率%</v>
+      </c>
+      <c r="F1" t="str">
+        <v>租金</v>
+      </c>
+      <c r="G1" t="str">
+        <v>水电</v>
+      </c>
+      <c r="H1" t="str">
+        <v>人工</v>
+      </c>
+      <c r="I1" t="str">
+        <v>推广</v>
+      </c>
+      <c r="J1" t="str">
+        <v>其他费用</v>
+      </c>
+      <c r="K1" t="str">
+        <v>总费用</v>
+      </c>
+      <c r="L1" t="str">
+        <v>净利润</v>
+      </c>
+      <c r="M1" t="str">
+        <v>利润率%</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>2026-01</v>
       </c>
       <c r="B2" s="1">
-        <f>SUMPRODUCT((TEXT(销售明细!$A$2:$A$2,"YYYY-MM")=A2)*销售明细!$E$2:$E$2)</f>
-        <v>480</v>
+        <f>SUMPRODUCT((TEXT(销售明细!$A$2:$A$3,"YYYY-MM")=A2)*销售明细!$E$2:$E$3)</f>
+        <v>0</v>
       </c>
       <c r="C2" s="1">
-        <f>SUMPRODUCT((TEXT(采购明细!$A$2:$A$3,"YYYY-MM")=A2)*采购明细!$F$2:$F$3)</f>
-        <v>800</v>
+        <f>SUMPRODUCT((TEXT(采购明细!$A$2:$A$4,"YYYY-MM")=A2)*采购明细!$F$2:$F$4)</f>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
         <f>B2-C2</f>
-        <v>-320</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2">
         <f>D2/B2</f>
-        <v>-0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>2500</v>
@@ -815,22 +681,20 @@
       </c>
       <c r="K2" s="1">
         <f>F2+G2+H2+I2+J2</f>
-        <v>13000</v>
+        <v>0</v>
       </c>
       <c r="L2" s="1">
         <f>D2-K2</f>
-        <v>-13320</v>
+        <v>0</v>
       </c>
       <c r="M2" s="2">
         <f>L2/B2</f>
-        <v>-27.75</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:M2" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M2"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/src/render-data/店铺数据统计.xlsx
+++ b/src/render-data/店铺数据统计.xlsx
@@ -34,9 +34,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-    <numFmt numFmtId="60" formatCode="yyyy-mm-dd"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -69,7 +68,7 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="60" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -435,8 +434,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1">
-        <v>46051</v>
+      <c r="A2" s="1" t="str">
+        <v>2026-01-29</v>
       </c>
       <c r="B2" t="str">
         <v>草莓蛋糕</v>
@@ -449,15 +448,15 @@
       </c>
       <c r="E2" s="2">
         <f>C2*D2</f>
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="F2" s="2">
-        <f>INDEX(月度利润!$C$2:$C$2, MATCH(TEXT(A2,"YYYY-MM"), 月度利润!$A$2:$A$2, 0))</f>
-        <v>0</v>
+        <f>SUMIF(采购明细!$A$2:$A$6, A2, 采购明细!$F$2:$F$6)</f>
+        <v>1100</v>
       </c>
       <c r="G2" s="2">
         <f>E2-F2</f>
-        <v>0</v>
+        <v>-620</v>
       </c>
       <c r="H2" s="3">
         <f>G2/E2</f>
@@ -465,8 +464,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1">
-        <v>46051</v>
+      <c r="A3" s="1" t="str">
+        <v>2026-01-28</v>
       </c>
       <c r="B3" t="str">
         <v>蓝莓蛋糕</v>
@@ -479,15 +478,15 @@
       </c>
       <c r="E3" s="2">
         <f>C3*D3</f>
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="F3" s="2">
-        <f>INDEX(月度利润!$C$2:$C$2, MATCH(TEXT(A3,"YYYY-MM"), 月度利润!$A$2:$A$2, 0))</f>
-        <v>0</v>
+        <f>SUMIF(采购明细!$A$2:$A$6, A3, 采购明细!$F$2:$F$6)</f>
+        <v>1100</v>
       </c>
       <c r="G3" s="2">
         <f>E3-F3</f>
-        <v>0</v>
+        <v>-780</v>
       </c>
       <c r="H3" s="3">
         <f>G3/E3</f>
@@ -495,8 +494,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1">
-        <v>46048</v>
+      <c r="A4" s="1" t="str">
+        <v>2026-01-25</v>
       </c>
       <c r="B4" t="str">
         <v>芭乐蛋糕</v>
@@ -509,15 +508,15 @@
       </c>
       <c r="E4" s="2">
         <f>C4*D4</f>
-        <v>0</v>
+        <v>460</v>
       </c>
       <c r="F4" s="2">
-        <f>INDEX(月度利润!$C$2:$C$2, MATCH(TEXT(A4,"YYYY-MM"), 月度利润!$A$2:$A$2, 0))</f>
+        <f>SUMIF(采购明细!$A$2:$A$6, A4, 采购明细!$F$2:$F$6)</f>
         <v>0</v>
       </c>
       <c r="G4" s="2">
         <f>E4-F4</f>
-        <v>0</v>
+        <v>460</v>
       </c>
       <c r="H4" s="3">
         <f>G4/E4</f>
@@ -559,8 +558,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1">
-        <v>46051</v>
+      <c r="A2" s="1" t="str">
+        <v>2026-01-29</v>
       </c>
       <c r="B2" t="str">
         <v>鸡蛋</v>
@@ -576,12 +575,12 @@
       </c>
       <c r="F2" s="2">
         <f>C2*E2</f>
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1">
-        <v>46051</v>
+      <c r="A3" s="1" t="str">
+        <v>2026-01-28</v>
       </c>
       <c r="B3" t="str">
         <v>奶油</v>
@@ -597,12 +596,12 @@
       </c>
       <c r="F3" s="2">
         <f>C3*E3</f>
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1">
-        <v>46051</v>
+      <c r="A4" s="1" t="str">
+        <v>2026-01-29</v>
       </c>
       <c r="B4" t="str">
         <v>蛋糕盒</v>
@@ -618,12 +617,12 @@
       </c>
       <c r="F4" s="2">
         <f>C4*E4</f>
-        <v>0</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1">
-        <v>46047</v>
+      <c r="A5" s="1" t="str">
+        <v>2026-01-25</v>
       </c>
       <c r="B5" t="str">
         <v>蛋糕盒</v>
@@ -639,12 +638,12 @@
       </c>
       <c r="F5" s="2">
         <f>C5*E5</f>
-        <v>0</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1">
-        <v>46048</v>
+      <c r="A6" s="1" t="str">
+        <v>2026-01-28</v>
       </c>
       <c r="B6" t="str">
         <v>叉子</v>
@@ -660,7 +659,7 @@
       </c>
       <c r="F6" s="2">
         <f>C6*E6</f>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -719,20 +718,20 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
+      <c r="A2" s="1" t="str">
         <v>2026-01</v>
       </c>
       <c r="B2" s="2">
         <f>SUMPRODUCT((TEXT(销售明细!$A$2:$A$3,"YYYY-MM")=A2)*销售明细!$E$2:$E$3)</f>
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="C2" s="2">
         <f>SUMPRODUCT((TEXT(采购明细!$A$2:$A$4,"YYYY-MM")=A2)*采购明细!$F$2:$F$4)</f>
-        <v>0</v>
+        <v>1050</v>
       </c>
       <c r="D2" s="2">
         <f>B2-C2</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="E2" s="3">
         <f>D2/B2</f>
@@ -755,11 +754,11 @@
       </c>
       <c r="K2" s="2">
         <f>F2+G2+H2+I2+J2</f>
-        <v>0</v>
+        <v>13000</v>
       </c>
       <c r="L2" s="2">
         <f>D2-K2</f>
-        <v>0</v>
+        <v>-13250</v>
       </c>
       <c r="M2" s="3">
         <f>L2/B2</f>

--- a/src/render-data/店铺数据统计.xlsx
+++ b/src/render-data/店铺数据统计.xlsx
@@ -402,7 +402,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -423,15 +423,6 @@
       <c r="E1" t="str">
         <v>销售额</v>
       </c>
-      <c r="F1" t="str">
-        <v>材料成本</v>
-      </c>
-      <c r="G1" t="str">
-        <v>毛利</v>
-      </c>
-      <c r="H1" t="str">
-        <v>毛利率%</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="str">
@@ -450,18 +441,6 @@
         <f>C2*D2</f>
         <v>480</v>
       </c>
-      <c r="F2" s="2">
-        <f>SUMIF(采购明细!$A$2:$A$6, A2, 采购明细!$F$2:$F$6)</f>
-        <v>1100</v>
-      </c>
-      <c r="G2" s="2">
-        <f>E2-F2</f>
-        <v>-620</v>
-      </c>
-      <c r="H2" s="3">
-        <f>G2/E2</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="str">
@@ -480,18 +459,6 @@
         <f>C3*D3</f>
         <v>320</v>
       </c>
-      <c r="F3" s="2">
-        <f>SUMIF(采购明细!$A$2:$A$6, A3, 采购明细!$F$2:$F$6)</f>
-        <v>1100</v>
-      </c>
-      <c r="G3" s="2">
-        <f>E3-F3</f>
-        <v>-780</v>
-      </c>
-      <c r="H3" s="3">
-        <f>G3/E3</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="str">
@@ -510,22 +477,10 @@
         <f>C4*D4</f>
         <v>460</v>
       </c>
-      <c r="F4" s="2">
-        <f>SUMIF(采购明细!$A$2:$A$6, A4, 采购明细!$F$2:$F$6)</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
-        <f>E4-F4</f>
-        <v>460</v>
-      </c>
-      <c r="H4" s="3">
-        <f>G4/E4</f>
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E4"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/src/render-data/店铺数据统计.xlsx
+++ b/src/render-data/店铺数据统计.xlsx
@@ -677,16 +677,16 @@
         <v>2026-01</v>
       </c>
       <c r="B2" s="2">
-        <f>SUMPRODUCT((TEXT(销售明细!$A$2:$A$3,"YYYY-MM")=A2)*销售明细!$E$2:$E$3)</f>
-        <v>800</v>
+        <f>SUMPRODUCT((TEXT(销售明细!$A$2:$A$4,"YYYY-MM")=A2)*销售明细!$E$2:$E$4)</f>
+        <v>1260</v>
       </c>
       <c r="C2" s="2">
-        <f>SUMPRODUCT((TEXT(采购明细!$A$2:$A$4,"YYYY-MM")=A2)*采购明细!$F$2:$F$4)</f>
-        <v>1050</v>
+        <f>SUMPRODUCT((TEXT(采购明细!$A$2:$A$6,"YYYY-MM")=A2)*采购明细!$F$2:$F$6)</f>
+        <v>1350</v>
       </c>
       <c r="D2" s="2">
         <f>B2-C2</f>
-        <v>-250</v>
+        <v>-90</v>
       </c>
       <c r="E2" s="3">
         <f>D2/B2</f>
@@ -713,7 +713,7 @@
       </c>
       <c r="L2" s="2">
         <f>D2-K2</f>
-        <v>-13250</v>
+        <v>-13090</v>
       </c>
       <c r="M2" s="3">
         <f>L2/B2</f>

--- a/src/render-data/店铺数据统计.xlsx
+++ b/src/render-data/店铺数据统计.xlsx
@@ -1,171 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10125"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/Documents/store-sheet/src/render-data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B507071-B51E-8C44-9CAF-9310B77DB57E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
     <sheet name="销售明细" sheetId="1" r:id="rId1"/>
     <sheet name="采购明细" sheetId="2" r:id="rId2"/>
     <sheet name="月度利润" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
-  <si>
-    <t>日期</t>
-  </si>
-  <si>
-    <t>商品名称</t>
-  </si>
-  <si>
-    <t>销量</t>
-  </si>
-  <si>
-    <t>售价</t>
-  </si>
-  <si>
-    <t>销售额</t>
-  </si>
-  <si>
-    <t>2026-01-29</t>
-  </si>
-  <si>
-    <t>草莓蛋糕</t>
-  </si>
-  <si>
-    <t>2026-01-28</t>
-  </si>
-  <si>
-    <t>蓝莓蛋糕</t>
-  </si>
-  <si>
-    <t>2026-01-25</t>
-  </si>
-  <si>
-    <t>芭乐蛋糕</t>
-  </si>
-  <si>
-    <t>品名</t>
-  </si>
-  <si>
-    <t>数量</t>
-  </si>
-  <si>
-    <t>单位</t>
-  </si>
-  <si>
-    <t>单价</t>
-  </si>
-  <si>
-    <t>金额</t>
-  </si>
-  <si>
-    <t>鸡蛋</t>
-  </si>
-  <si>
-    <t>件</t>
-  </si>
-  <si>
-    <t>奶油</t>
-  </si>
-  <si>
-    <t>蛋糕盒</t>
-  </si>
-  <si>
-    <t>箱</t>
-  </si>
-  <si>
-    <t>叉子</t>
-  </si>
-  <si>
-    <t>月份</t>
-  </si>
-  <si>
-    <t>销售收入</t>
-  </si>
-  <si>
-    <t>销售成本</t>
-  </si>
-  <si>
-    <t>毛利</t>
-  </si>
-  <si>
-    <t>毛利率%</t>
-  </si>
-  <si>
-    <t>租金</t>
-  </si>
-  <si>
-    <t>水电</t>
-  </si>
-  <si>
-    <t>人工</t>
-  </si>
-  <si>
-    <t>推广</t>
-  </si>
-  <si>
-    <t>其他费用</t>
-  </si>
-  <si>
-    <t>总费用</t>
-  </si>
-  <si>
-    <t>净利润</t>
-  </si>
-  <si>
-    <t>利润率%</t>
-  </si>
-  <si>
-    <t>2026-01</t>
-  </si>
-  <si>
-    <t>荔枝蛋糕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-</sst>
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -190,24 +67,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -532,38 +401,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>日期</v>
+      </c>
+      <c r="B1" t="str">
+        <v>商品名称</v>
+      </c>
+      <c r="C1" t="str">
+        <v>销量</v>
+      </c>
+      <c r="D1" t="str">
+        <v>售价</v>
+      </c>
+      <c r="E1" t="str">
+        <v>销售额</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="str">
+        <v>2026-01-29</v>
+      </c>
+      <c r="B2" t="str">
+        <v>草莓蛋糕</v>
       </c>
       <c r="C2">
         <v>12</v>
@@ -576,12 +442,12 @@
         <v>480</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
+    <row r="3">
+      <c r="A3" s="1" t="str">
+        <v>2026-01-28</v>
+      </c>
+      <c r="B3" t="str">
+        <v>蓝莓蛋糕</v>
       </c>
       <c r="C3">
         <v>8</v>
@@ -594,12 +460,12 @@
         <v>320</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
+    <row r="4">
+      <c r="A4" s="1" t="str">
+        <v>2026-01-25</v>
+      </c>
+      <c r="B4" t="str">
+        <v>芭乐蛋糕</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -612,12 +478,12 @@
         <v>460</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>36</v>
+    <row r="5">
+      <c r="A5" s="1" t="str">
+        <v>2026-01-25</v>
+      </c>
+      <c r="B5" t="str">
+        <v>荔枝蛋糕</v>
       </c>
       <c r="C5">
         <v>10</v>
@@ -631,56 +497,51 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:E4" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E5"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>日期</v>
+      </c>
+      <c r="B1" t="str">
+        <v>品名</v>
+      </c>
+      <c r="C1" t="str">
+        <v>数量</v>
+      </c>
+      <c r="D1" t="str">
+        <v>单位</v>
+      </c>
+      <c r="E1" t="str">
+        <v>单价</v>
+      </c>
+      <c r="F1" t="str">
+        <v>金额</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="str">
+        <v>2026-01-29</v>
+      </c>
+      <c r="B2" t="str">
+        <v>鸡蛋</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>17</v>
+      <c r="D2" t="str">
+        <v>件</v>
       </c>
       <c r="E2">
         <v>200</v>
@@ -690,18 +551,18 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
+    <row r="3">
+      <c r="A3" s="1" t="str">
+        <v>2026-01-28</v>
+      </c>
+      <c r="B3" t="str">
+        <v>奶油</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
-        <v>17</v>
+      <c r="D3" t="str">
+        <v>件</v>
       </c>
       <c r="E3">
         <v>600</v>
@@ -711,18 +572,18 @@
         <v>600</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
+    <row r="4">
+      <c r="A4" s="1" t="str">
+        <v>2026-01-29</v>
+      </c>
+      <c r="B4" t="str">
+        <v>蛋糕盒</v>
       </c>
       <c r="C4">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
-        <v>20</v>
+      <c r="D4" t="str">
+        <v>箱</v>
       </c>
       <c r="E4">
         <v>50</v>
@@ -732,18 +593,18 @@
         <v>250</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
+    <row r="5">
+      <c r="A5" s="1" t="str">
+        <v>2026-01-25</v>
+      </c>
+      <c r="B5" t="str">
+        <v>蛋糕盒</v>
       </c>
       <c r="C5">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
+      <c r="D5" t="str">
+        <v>箱</v>
       </c>
       <c r="E5">
         <v>50</v>
@@ -753,18 +614,18 @@
         <v>250</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
+    <row r="6">
+      <c r="A6" s="1" t="str">
+        <v>2026-01-28</v>
+      </c>
+      <c r="B6" t="str">
+        <v>叉子</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
+      <c r="D6" t="str">
+        <v>箱</v>
       </c>
       <c r="E6">
         <v>10</v>
@@ -774,18 +635,18 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
+    <row r="7">
+      <c r="A7" s="1" t="str">
+        <v>2026-01-28</v>
+      </c>
+      <c r="B7" t="str">
+        <v>叉子</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
-      <c r="D7" t="s">
-        <v>20</v>
+      <c r="D7" t="str">
+        <v>箱</v>
       </c>
       <c r="E7">
         <v>10</v>
@@ -796,66 +657,63 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:F6" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F7"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="1" t="s">
-        <v>35</v>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>月份</v>
+      </c>
+      <c r="B1" t="str">
+        <v>销售收入</v>
+      </c>
+      <c r="C1" t="str">
+        <v>销售成本</v>
+      </c>
+      <c r="D1" t="str">
+        <v>毛利</v>
+      </c>
+      <c r="E1" t="str">
+        <v>毛利率%</v>
+      </c>
+      <c r="F1" t="str">
+        <v>租金</v>
+      </c>
+      <c r="G1" t="str">
+        <v>水电</v>
+      </c>
+      <c r="H1" t="str">
+        <v>人工</v>
+      </c>
+      <c r="I1" t="str">
+        <v>推广</v>
+      </c>
+      <c r="J1" t="str">
+        <v>其他费用</v>
+      </c>
+      <c r="K1" t="str">
+        <v>总费用</v>
+      </c>
+      <c r="L1" t="str">
+        <v>净利润</v>
+      </c>
+      <c r="M1" t="str">
+        <v>利润率%</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="str">
+        <v>2026-01</v>
       </c>
       <c r="B2" s="2">
         <f>SUMPRODUCT((TEXT(销售明细!$A$2:$A$10000,"YYYY-MM")=A2)*销售明细!$E$2:$E$10000)</f>
@@ -871,7 +729,7 @@
       </c>
       <c r="E2" s="3">
         <f>D2/B2</f>
-        <v>0.18604651162790697</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>2500</v>
@@ -898,14 +756,12 @@
       </c>
       <c r="M2" s="3">
         <f>L2/B2</f>
-        <v>-7.3720930232558137</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:M2" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M2"/>
   </ignoredErrors>
 </worksheet>
 </file>